--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5.835941000000001</v>
+      </c>
+      <c r="H2">
+        <v>17.507823</v>
+      </c>
+      <c r="I2">
+        <v>0.03643643319117328</v>
+      </c>
+      <c r="J2">
+        <v>0.03643643319117327</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>7.134618000000001</v>
-      </c>
-      <c r="H2">
-        <v>21.403854</v>
-      </c>
-      <c r="I2">
-        <v>0.09653179209260773</v>
-      </c>
-      <c r="J2">
-        <v>0.09653179209260773</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.06945599999999999</v>
+        <v>0.6957970000000001</v>
       </c>
       <c r="N2">
-        <v>0.208368</v>
+        <v>2.087391</v>
       </c>
       <c r="O2">
-        <v>0.0162740978965466</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P2">
-        <v>0.0162740978965466</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q2">
-        <v>0.4955420278079999</v>
+        <v>4.060630239977002</v>
       </c>
       <c r="R2">
-        <v>4.459878250272</v>
+        <v>36.54567215979301</v>
       </c>
       <c r="S2">
-        <v>0.001570967834644181</v>
+        <v>0.03364092386286413</v>
       </c>
       <c r="T2">
-        <v>0.001570967834644181</v>
+        <v>0.03364092386286413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6957970000000001</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N3">
-        <v>2.087391</v>
+        <v>0.173459</v>
       </c>
       <c r="O3">
-        <v>0.1630308179872645</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P3">
-        <v>0.1630308179872644</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q3">
-        <v>4.964245800546001</v>
+        <v>0.3374321633063334</v>
       </c>
       <c r="R3">
-        <v>44.67821220491401</v>
+        <v>3.036889469757</v>
       </c>
       <c r="S3">
-        <v>0.01573765702663438</v>
+        <v>0.002795509328309142</v>
       </c>
       <c r="T3">
-        <v>0.01573765702663438</v>
+        <v>0.002795509328309142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>17.50798033333334</v>
+      </c>
+      <c r="H4">
+        <v>52.52394100000001</v>
+      </c>
+      <c r="I4">
+        <v>0.1093102818770573</v>
+      </c>
+      <c r="J4">
+        <v>0.1093102818770573</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>7.134618000000001</v>
-      </c>
-      <c r="H4">
-        <v>21.403854</v>
-      </c>
-      <c r="I4">
-        <v>0.09653179209260773</v>
-      </c>
-      <c r="J4">
-        <v>0.09653179209260773</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>3.502633333333333</v>
+        <v>0.6957970000000001</v>
       </c>
       <c r="N4">
-        <v>10.5079</v>
+        <v>2.087391</v>
       </c>
       <c r="O4">
-        <v>0.820695084116189</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P4">
-        <v>0.820695084116189</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q4">
-        <v>24.9899508274</v>
+        <v>12.18200019199234</v>
       </c>
       <c r="R4">
-        <v>224.9095574466</v>
+        <v>109.638001727931</v>
       </c>
       <c r="S4">
-        <v>0.07922316723132916</v>
+        <v>0.1009236785269401</v>
       </c>
       <c r="T4">
-        <v>0.07922316723132916</v>
+        <v>0.1009236785269401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06945599999999999</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N5">
-        <v>0.208368</v>
+        <v>0.173459</v>
       </c>
       <c r="O5">
-        <v>0.0162740978965466</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P5">
-        <v>0.0162740978965466</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q5">
-        <v>1.216034282032</v>
+        <v>1.012305586879889</v>
       </c>
       <c r="R5">
-        <v>10.944308538288</v>
+        <v>9.110750281919001</v>
       </c>
       <c r="S5">
-        <v>0.003855073103177994</v>
+        <v>0.008386603350117202</v>
       </c>
       <c r="T5">
-        <v>0.003855073103177994</v>
+        <v>0.008386603350117204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>410.471443</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>2.087391</v>
       </c>
       <c r="O6">
-        <v>0.1630308179872645</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P6">
-        <v>0.1630308179872644</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q6">
-        <v>12.18200019199234</v>
+        <v>95.20159954169034</v>
       </c>
       <c r="R6">
-        <v>109.638001727931</v>
+        <v>856.8143958752131</v>
       </c>
       <c r="S6">
-        <v>0.0386193892532242</v>
+        <v>0.7887124836619021</v>
       </c>
       <c r="T6">
-        <v>0.03861938925322419</v>
+        <v>0.7887124836619021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>410.471443</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.502633333333333</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N7">
-        <v>10.5079</v>
+        <v>0.173459</v>
       </c>
       <c r="O7">
-        <v>0.820695084116189</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P7">
-        <v>0.820695084116189</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q7">
-        <v>61.32403551487777</v>
+        <v>7.911107336815222</v>
       </c>
       <c r="R7">
-        <v>551.9163196338999</v>
+        <v>71.199966031337</v>
       </c>
       <c r="S7">
-        <v>0.1944095190282772</v>
+        <v>0.06554080126986743</v>
       </c>
       <c r="T7">
-        <v>0.1944095190282771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>49.26691733333334</v>
-      </c>
-      <c r="H8">
-        <v>147.800752</v>
-      </c>
-      <c r="I8">
-        <v>0.666584226522713</v>
-      </c>
-      <c r="J8">
-        <v>0.666584226522713</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.06945599999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.208368</v>
-      </c>
-      <c r="O8">
-        <v>0.0162740978965466</v>
-      </c>
-      <c r="P8">
-        <v>0.0162740978965466</v>
-      </c>
-      <c r="Q8">
-        <v>3.421883010304</v>
-      </c>
-      <c r="R8">
-        <v>30.796947092736</v>
-      </c>
-      <c r="S8">
-        <v>0.01084805695872443</v>
-      </c>
-      <c r="T8">
-        <v>0.01084805695872443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>49.26691733333334</v>
-      </c>
-      <c r="H9">
-        <v>147.800752</v>
-      </c>
-      <c r="I9">
-        <v>0.666584226522713</v>
-      </c>
-      <c r="J9">
-        <v>0.666584226522713</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.6957970000000001</v>
-      </c>
-      <c r="N9">
-        <v>2.087391</v>
-      </c>
-      <c r="O9">
-        <v>0.1630308179872645</v>
-      </c>
-      <c r="P9">
-        <v>0.1630308179872644</v>
-      </c>
-      <c r="Q9">
-        <v>34.27977327978135</v>
-      </c>
-      <c r="R9">
-        <v>308.5179595180321</v>
-      </c>
-      <c r="S9">
-        <v>0.1086737717074059</v>
-      </c>
-      <c r="T9">
-        <v>0.1086737717074059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>49.26691733333334</v>
-      </c>
-      <c r="H10">
-        <v>147.800752</v>
-      </c>
-      <c r="I10">
-        <v>0.666584226522713</v>
-      </c>
-      <c r="J10">
-        <v>0.666584226522713</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.502633333333333</v>
-      </c>
-      <c r="N10">
-        <v>10.5079</v>
-      </c>
-      <c r="O10">
-        <v>0.820695084116189</v>
-      </c>
-      <c r="P10">
-        <v>0.820695084116189</v>
-      </c>
-      <c r="Q10">
-        <v>172.5639468823111</v>
-      </c>
-      <c r="R10">
-        <v>1553.0755219408</v>
-      </c>
-      <c r="S10">
-        <v>0.5470623978565827</v>
-      </c>
-      <c r="T10">
-        <v>0.5470623978565827</v>
+        <v>0.06554080126986743</v>
       </c>
     </row>
   </sheetData>
